--- a/data/depot/Spending Drivers - Highways – Congestion Data by Urban Area.xlsx
+++ b/data/depot/Spending Drivers - Highways – Congestion Data by Urban Area.xlsx
@@ -808,6 +808,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -844,7 +845,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1167,17 +1167,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -1234,7 +1234,7 @@
       <c r="E3" s="6">
         <v>5480</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="9">
         <v>3.58</v>
       </c>
       <c r="G3" s="6">
@@ -1268,7 +1268,7 @@
       <c r="E4" s="6">
         <v>7060</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="9">
         <v>3.75</v>
       </c>
       <c r="G4" s="6">
@@ -1302,7 +1302,7 @@
       <c r="E5" s="6">
         <v>5025</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="9">
         <v>3.24</v>
       </c>
       <c r="G5" s="6">
@@ -1336,7 +1336,7 @@
       <c r="E6" s="6">
         <v>5080</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="9">
         <v>3.55</v>
       </c>
       <c r="G6" s="6">
@@ -1370,7 +1370,7 @@
       <c r="E7" s="6">
         <v>1365</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="9">
         <v>3.89</v>
       </c>
       <c r="G7" s="6">
@@ -1404,7 +1404,7 @@
       <c r="E8" s="6">
         <v>50245</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="9">
         <v>3.43</v>
       </c>
       <c r="G8" s="6">
@@ -1438,7 +1438,7 @@
       <c r="E9" s="6">
         <v>12510</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="9">
         <v>3.33</v>
       </c>
       <c r="G9" s="6">
@@ -1472,7 +1472,7 @@
       <c r="E10" s="6">
         <v>2205</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="9">
         <v>3.89</v>
       </c>
       <c r="G10" s="6">
@@ -1506,7 +1506,7 @@
       <c r="E11" s="6">
         <v>26900</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="9">
         <v>3.49</v>
       </c>
       <c r="G11" s="6">
@@ -1540,7 +1540,7 @@
       <c r="E12" s="6">
         <v>4745</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="9">
         <v>3.35</v>
       </c>
       <c r="G12" s="6">
@@ -1574,7 +1574,7 @@
       <c r="E13" s="6">
         <v>3005</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="9">
         <v>3.33</v>
       </c>
       <c r="G13" s="6">
@@ -1608,7 +1608,7 @@
       <c r="E14" s="6">
         <v>9595</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="9">
         <v>3.33</v>
       </c>
       <c r="G14" s="6">
@@ -1642,7 +1642,7 @@
       <c r="E15" s="6">
         <v>1520</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="9">
         <v>3.35</v>
       </c>
       <c r="G15" s="6">
@@ -1676,7 +1676,7 @@
       <c r="E16" s="6">
         <v>40905</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="9">
         <v>3.53</v>
       </c>
       <c r="G16" s="6">
@@ -1710,7 +1710,7 @@
       <c r="E17" s="6">
         <v>660</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="9">
         <v>3.28</v>
       </c>
       <c r="G17" s="6">
@@ -1744,7 +1744,7 @@
       <c r="E18" s="6">
         <v>10410</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="9">
         <v>3.75</v>
       </c>
       <c r="G18" s="6">
@@ -1778,7 +1778,7 @@
       <c r="E19" s="6">
         <v>750</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="9">
         <v>3.33</v>
       </c>
       <c r="G19" s="6">
@@ -1812,7 +1812,7 @@
       <c r="E20" s="6">
         <v>6560</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="9">
         <v>3.75</v>
       </c>
       <c r="G20" s="6">
@@ -1846,7 +1846,7 @@
       <c r="E21" s="6">
         <v>1730</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="9">
         <v>3.5</v>
       </c>
       <c r="G21" s="6">
@@ -1880,7 +1880,7 @@
       <c r="E22" s="6">
         <v>3705</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="9">
         <v>3.27</v>
       </c>
       <c r="G22" s="6">
@@ -1914,7 +1914,7 @@
       <c r="E23" s="6">
         <v>12285</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="9">
         <v>3.49</v>
       </c>
       <c r="G23" s="6">
@@ -1948,7 +1948,7 @@
       <c r="E24" s="6">
         <v>55380</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="9">
         <v>3.73</v>
       </c>
       <c r="G24" s="6">
@@ -1982,7 +1982,7 @@
       <c r="E25" s="6">
         <v>18550</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="9">
         <v>3.58</v>
       </c>
       <c r="G25" s="6">
@@ -2016,7 +2016,7 @@
       <c r="E26" s="6">
         <v>16880</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="9">
         <v>3.58</v>
       </c>
       <c r="G26" s="6">
@@ -2050,7 +2050,7 @@
       <c r="E27" s="6">
         <v>4500</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="9">
         <v>3.28</v>
       </c>
       <c r="G27" s="6">
@@ -2084,7 +2084,7 @@
       <c r="E28" s="6">
         <v>5790</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="9">
         <v>3.27</v>
       </c>
       <c r="G28" s="6">
@@ -2118,7 +2118,7 @@
       <c r="E29" s="6">
         <v>15245</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="9">
         <v>3.58</v>
       </c>
       <c r="G29" s="6">
@@ -2152,7 +2152,7 @@
       <c r="E30" s="6">
         <v>2860</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="9">
         <v>3.33</v>
       </c>
       <c r="G30" s="6">
@@ -2186,7 +2186,7 @@
       <c r="E31" s="6">
         <v>64235</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="9">
         <v>3.33</v>
       </c>
       <c r="G31" s="6">
@@ -2220,7 +2220,7 @@
       <c r="E32" s="6">
         <v>6905</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="9">
         <v>3.58</v>
       </c>
       <c r="G32" s="6">
@@ -2254,7 +2254,7 @@
       <c r="E33" s="6">
         <v>20980</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="9">
         <v>3.28</v>
       </c>
       <c r="G33" s="6">
@@ -2288,7 +2288,7 @@
       <c r="E34" s="6">
         <v>30085</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="9">
         <v>3.68</v>
       </c>
       <c r="G34" s="6">
@@ -2322,7 +2322,7 @@
       <c r="E35" s="6">
         <v>5800</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="9">
         <v>3.33</v>
       </c>
       <c r="G35" s="6">
@@ -2356,7 +2356,7 @@
       <c r="E36" s="6">
         <v>1605</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="9">
         <v>3.67</v>
       </c>
       <c r="G36" s="6">
@@ -2390,7 +2390,7 @@
       <c r="E37" s="6">
         <v>3820</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="9">
         <v>3.89</v>
       </c>
       <c r="G37" s="6">
@@ -2424,7 +2424,7 @@
       <c r="E38" s="6">
         <v>5305</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="9">
         <v>3.68</v>
       </c>
       <c r="G38" s="6">
@@ -2458,7 +2458,7 @@
       <c r="E39" s="6">
         <v>4535</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="9">
         <v>3.49</v>
       </c>
       <c r="G39" s="6">
@@ -2492,7 +2492,7 @@
       <c r="E40" s="6">
         <v>10545</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="9">
         <v>3.78</v>
       </c>
       <c r="G40" s="6">
@@ -2521,7 +2521,7 @@
       <c r="E41" s="6">
         <v>5855</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="9">
         <v>4.1100000000000003</v>
       </c>
       <c r="G41" s="6">
@@ -2550,7 +2550,7 @@
       <c r="E42" s="6">
         <v>53620</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="9">
         <v>3.33</v>
       </c>
       <c r="G42" s="6">
@@ -2584,7 +2584,7 @@
       <c r="E43" s="6">
         <v>13640</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="9">
         <v>3.6</v>
       </c>
       <c r="G43" s="6">
@@ -2618,7 +2618,7 @@
       <c r="E44" s="6">
         <v>1065</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="9">
         <v>3.89</v>
       </c>
       <c r="G44" s="6">
@@ -2652,7 +2652,7 @@
       <c r="E45" s="6">
         <v>4600</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="9">
         <v>3.31</v>
       </c>
       <c r="G45" s="6">
@@ -2686,7 +2686,7 @@
       <c r="E46" s="6">
         <v>11535</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="9">
         <v>3.5</v>
       </c>
       <c r="G46" s="6">
@@ -2720,7 +2720,7 @@
       <c r="E47" s="6">
         <v>21315</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="9">
         <v>3.3</v>
       </c>
       <c r="G47" s="6">
@@ -2754,7 +2754,7 @@
       <c r="E48" s="6">
         <v>5405</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="9">
         <v>3.32</v>
       </c>
       <c r="G48" s="6">
@@ -2788,7 +2788,7 @@
       <c r="E49" s="6">
         <v>990</v>
       </c>
-      <c r="F49" s="21">
+      <c r="F49" s="9">
         <v>3.89</v>
       </c>
       <c r="G49" s="6">
@@ -2822,7 +2822,7 @@
       <c r="E50" s="6">
         <v>550</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="9">
         <v>3.33</v>
       </c>
       <c r="G50" s="6">
@@ -2856,7 +2856,7 @@
       <c r="E51" s="6">
         <v>10990</v>
       </c>
-      <c r="F51" s="21">
+      <c r="F51" s="9">
         <v>3.54</v>
       </c>
       <c r="G51" s="6">
@@ -2890,7 +2890,7 @@
       <c r="E52" s="6">
         <v>7100</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="9">
         <v>3.33</v>
       </c>
       <c r="G52" s="6">
@@ -2924,7 +2924,7 @@
       <c r="E53" s="6">
         <v>131200</v>
       </c>
-      <c r="F53" s="21">
+      <c r="F53" s="9">
         <v>3.89</v>
       </c>
       <c r="G53" s="6">
@@ -2958,7 +2958,7 @@
       <c r="E54" s="6">
         <v>12310</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="9">
         <v>3.48</v>
       </c>
       <c r="G54" s="6">
@@ -2992,7 +2992,7 @@
       <c r="E55" s="6">
         <v>3085</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="9">
         <v>3.6</v>
       </c>
       <c r="G55" s="6">
@@ -3026,7 +3026,7 @@
       <c r="E56" s="6">
         <v>3225</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="9">
         <v>3.33</v>
       </c>
       <c r="G56" s="6">
@@ -3060,7 +3060,7 @@
       <c r="E57" s="6">
         <v>8530</v>
       </c>
-      <c r="F57" s="21">
+      <c r="F57" s="9">
         <v>3.32</v>
       </c>
       <c r="G57" s="6">
@@ -3094,7 +3094,7 @@
       <c r="E58" s="6">
         <v>41775</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="9">
         <v>3.5</v>
       </c>
       <c r="G58" s="6">
@@ -3128,7 +3128,7 @@
       <c r="E59" s="6">
         <v>11195</v>
       </c>
-      <c r="F59" s="21">
+      <c r="F59" s="9">
         <v>3.6</v>
       </c>
       <c r="G59" s="6">
@@ -3162,7 +3162,7 @@
       <c r="E60" s="6">
         <v>28765</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="9">
         <v>3.48</v>
       </c>
       <c r="G60" s="6">
@@ -3196,7 +3196,7 @@
       <c r="E61" s="6">
         <v>15260</v>
       </c>
-      <c r="F61" s="21">
+      <c r="F61" s="9">
         <v>3.32</v>
       </c>
       <c r="G61" s="6">
@@ -3230,7 +3230,7 @@
       <c r="E62" s="6">
         <v>7465</v>
       </c>
-      <c r="F62" s="21">
+      <c r="F62" s="9">
         <v>3.78</v>
       </c>
       <c r="G62" s="6">
@@ -3264,7 +3264,7 @@
       <c r="E63" s="6">
         <v>4950</v>
       </c>
-      <c r="F63" s="21">
+      <c r="F63" s="9">
         <v>3.35</v>
       </c>
       <c r="G63" s="6">
@@ -3298,7 +3298,7 @@
       <c r="E64" s="6">
         <v>114560</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F64" s="9">
         <v>3.75</v>
       </c>
       <c r="G64" s="6">
@@ -3332,7 +3332,7 @@
       <c r="E65" s="6">
         <v>10500</v>
       </c>
-      <c r="F65" s="21">
+      <c r="F65" s="9">
         <v>3.33</v>
       </c>
       <c r="G65" s="6">
@@ -3366,7 +3366,7 @@
       <c r="E66" s="6">
         <v>5070</v>
       </c>
-      <c r="F66" s="21">
+      <c r="F66" s="9">
         <v>3.47</v>
       </c>
       <c r="G66" s="6">
@@ -3400,7 +3400,7 @@
       <c r="E67" s="6">
         <v>12285</v>
       </c>
-      <c r="F67" s="21">
+      <c r="F67" s="9">
         <v>3.5</v>
       </c>
       <c r="G67" s="6">
@@ -3434,7 +3434,7 @@
       <c r="E68" s="6">
         <v>7060</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F68" s="9">
         <v>3.89</v>
       </c>
       <c r="G68" s="6">
@@ -3468,7 +3468,7 @@
       <c r="E69" s="6">
         <v>1370</v>
       </c>
-      <c r="F69" s="21">
+      <c r="F69" s="9">
         <v>3.5</v>
       </c>
       <c r="G69" s="6">
@@ -3502,7 +3502,7 @@
       <c r="E70" s="6">
         <v>33735</v>
       </c>
-      <c r="F70" s="21">
+      <c r="F70" s="9">
         <v>3.55</v>
       </c>
       <c r="G70" s="6">
@@ -3536,7 +3536,7 @@
       <c r="E71" s="6">
         <v>30025</v>
       </c>
-      <c r="F71" s="21">
+      <c r="F71" s="9">
         <v>3.34</v>
       </c>
       <c r="G71" s="6">
@@ -3570,7 +3570,7 @@
       <c r="E72" s="6">
         <v>8800</v>
       </c>
-      <c r="F72" s="21">
+      <c r="F72" s="9">
         <v>3.55</v>
       </c>
       <c r="G72" s="6">
@@ -3604,7 +3604,7 @@
       <c r="E73" s="6">
         <v>13565</v>
       </c>
-      <c r="F73" s="21">
+      <c r="F73" s="9">
         <v>3.67</v>
       </c>
       <c r="G73" s="6">
@@ -3638,7 +3638,7 @@
       <c r="E74" s="6">
         <v>5050</v>
       </c>
-      <c r="F74" s="21">
+      <c r="F74" s="9">
         <v>3.75</v>
       </c>
       <c r="G74" s="6">
@@ -3672,7 +3672,7 @@
       <c r="E75" s="6">
         <v>11150</v>
       </c>
-      <c r="F75" s="21">
+      <c r="F75" s="9">
         <v>3.6</v>
       </c>
       <c r="G75" s="6">
@@ -3706,7 +3706,7 @@
       <c r="E76" s="6">
         <v>3870</v>
       </c>
-      <c r="F76" s="21">
+      <c r="F76" s="9">
         <v>3.24</v>
       </c>
       <c r="G76" s="6">
@@ -3740,7 +3740,7 @@
       <c r="E77" s="6">
         <v>8150</v>
       </c>
-      <c r="F77" s="21">
+      <c r="F77" s="9">
         <v>3.49</v>
       </c>
       <c r="G77" s="6">
@@ -3774,7 +3774,7 @@
       <c r="E78" s="6">
         <v>11660</v>
       </c>
-      <c r="F78" s="21">
+      <c r="F78" s="9">
         <v>3.39</v>
       </c>
       <c r="G78" s="6">
@@ -3808,7 +3808,7 @@
       <c r="E79" s="6">
         <v>22865</v>
       </c>
-      <c r="F79" s="21">
+      <c r="F79" s="9">
         <v>3.89</v>
       </c>
       <c r="G79" s="6">
@@ -3842,7 +3842,7 @@
       <c r="E80" s="6">
         <v>5815</v>
       </c>
-      <c r="F80" s="21">
+      <c r="F80" s="9">
         <v>3.75</v>
       </c>
       <c r="G80" s="6">
@@ -3876,7 +3876,7 @@
       <c r="E81" s="6">
         <v>15170</v>
       </c>
-      <c r="F81" s="21">
+      <c r="F81" s="9">
         <v>3.89</v>
       </c>
       <c r="G81" s="6">
@@ -3910,7 +3910,7 @@
       <c r="E82" s="6">
         <v>1495</v>
       </c>
-      <c r="F82" s="21">
+      <c r="F82" s="9">
         <v>3.67</v>
       </c>
       <c r="G82" s="6">
@@ -3944,7 +3944,7 @@
       <c r="E83" s="6">
         <v>8290</v>
       </c>
-      <c r="F83" s="21">
+      <c r="F83" s="9">
         <v>3.24</v>
       </c>
       <c r="G83" s="6">
@@ -3978,7 +3978,7 @@
       <c r="E84" s="6">
         <v>20645</v>
       </c>
-      <c r="F84" s="21">
+      <c r="F84" s="9">
         <v>3.33</v>
       </c>
       <c r="G84" s="6">
@@ -4012,7 +4012,7 @@
       <c r="E85" s="6">
         <v>36485</v>
       </c>
-      <c r="F85" s="21">
+      <c r="F85" s="9">
         <v>3.89</v>
       </c>
       <c r="G85" s="6">
@@ -4046,7 +4046,7 @@
       <c r="E86" s="6">
         <v>27500</v>
       </c>
-      <c r="F86" s="21">
+      <c r="F86" s="9">
         <v>3.89</v>
       </c>
       <c r="G86" s="6">
@@ -4080,7 +4080,7 @@
       <c r="E87" s="6">
         <v>17070</v>
       </c>
-      <c r="F87" s="21">
+      <c r="F87" s="9">
         <v>3.89</v>
       </c>
       <c r="G87" s="6">
@@ -4114,7 +4114,7 @@
       <c r="E88" s="6">
         <v>11110</v>
       </c>
-      <c r="F88" s="21">
+      <c r="F88" s="9">
         <v>4.1100000000000003</v>
       </c>
       <c r="G88" s="6">
@@ -4148,7 +4148,7 @@
       <c r="E89" s="6">
         <v>2405</v>
       </c>
-      <c r="F89" s="21">
+      <c r="F89" s="9">
         <v>3.5</v>
       </c>
       <c r="G89" s="6">
@@ -4182,7 +4182,7 @@
       <c r="E90" s="6">
         <v>30745</v>
       </c>
-      <c r="F90" s="21">
+      <c r="F90" s="9">
         <v>3.68</v>
       </c>
       <c r="G90" s="6">
@@ -4216,7 +4216,7 @@
       <c r="E91" s="6">
         <v>2135</v>
       </c>
-      <c r="F91" s="21">
+      <c r="F91" s="9">
         <v>3.68</v>
       </c>
       <c r="G91" s="6">
@@ -4250,7 +4250,7 @@
       <c r="E92" s="6">
         <v>5375</v>
       </c>
-      <c r="F92" s="21">
+      <c r="F92" s="9">
         <v>3.53</v>
       </c>
       <c r="G92" s="6">
@@ -4284,7 +4284,7 @@
       <c r="E93" s="6">
         <v>29490</v>
       </c>
-      <c r="F93" s="21">
+      <c r="F93" s="9">
         <v>3.3</v>
       </c>
       <c r="G93" s="6">
@@ -4318,7 +4318,7 @@
       <c r="E94" s="6">
         <v>3740</v>
       </c>
-      <c r="F94" s="21">
+      <c r="F94" s="9">
         <v>3.89</v>
       </c>
       <c r="G94" s="6">
@@ -4352,7 +4352,7 @@
       <c r="E95" s="6">
         <v>14155</v>
       </c>
-      <c r="F95" s="21">
+      <c r="F95" s="9">
         <v>3.5</v>
       </c>
       <c r="G95" s="6">
@@ -4386,7 +4386,7 @@
       <c r="E96" s="6">
         <v>3770</v>
       </c>
-      <c r="F96" s="21">
+      <c r="F96" s="9">
         <v>3.58</v>
       </c>
       <c r="G96" s="6">
@@ -4420,7 +4420,7 @@
       <c r="E97" s="6">
         <v>3755</v>
       </c>
-      <c r="F97" s="21">
+      <c r="F97" s="9">
         <v>3.34</v>
       </c>
       <c r="G97" s="6">
@@ -4454,7 +4454,7 @@
       <c r="E98" s="6">
         <v>7440</v>
       </c>
-      <c r="F98" s="21">
+      <c r="F98" s="9">
         <v>3.33</v>
       </c>
       <c r="G98" s="6">
@@ -4488,7 +4488,7 @@
       <c r="E99" s="6">
         <v>13120</v>
       </c>
-      <c r="F99" s="21">
+      <c r="F99" s="9">
         <v>3.39</v>
       </c>
       <c r="G99" s="6">
@@ -4522,7 +4522,7 @@
       <c r="E100" s="6">
         <v>37680</v>
       </c>
-      <c r="F100" s="21">
+      <c r="F100" s="9">
         <v>3.66</v>
       </c>
       <c r="G100" s="6">
@@ -4556,7 +4556,7 @@
       <c r="E101" s="6">
         <v>4215</v>
       </c>
-      <c r="F101" s="21">
+      <c r="F101" s="9">
         <v>3.38</v>
       </c>
       <c r="G101" s="6">
@@ -4590,7 +4590,7 @@
       <c r="E102" s="6">
         <v>4685</v>
       </c>
-      <c r="F102" s="21">
+      <c r="F102" s="9">
         <v>3.49</v>
       </c>
       <c r="G102" s="6">
@@ -4624,7 +4624,7 @@
       <c r="E103" s="6">
         <v>5680</v>
       </c>
-      <c r="F103" s="21">
+      <c r="F103" s="9">
         <v>3.53</v>
       </c>
       <c r="G103" s="6">
@@ -4661,7 +4661,7 @@
         <f t="shared" si="0"/>
         <v>14860.09900990099</v>
       </c>
-      <c r="F104" s="21">
+      <c r="F104" s="9">
         <f t="shared" si="0"/>
         <v>3.543762376237622</v>
       </c>
@@ -4684,41 +4684,41 @@
       <c r="N104" s="1"/>
     </row>
     <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="15"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" s="15" t="s">
+      <c r="A106" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="17"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="18"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" s="18"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="20"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="20"/>
+      <c r="I107" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
